--- a/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/UsuarioLista.xlsx
+++ b/Logictracker/Logictracker/src/Web/Logictracker/Logictracker.Web/ExcelTemplate/Logictracker/UsuarioLista.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositorio\LogicTracker\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\LT 4\Logictracker\Logictracker\src\Web\Logictracker\Logictracker.Web\ExcelTemplate\Logictracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,9 +15,10 @@
     <sheet name="Informe" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$7:$C$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Informe!$A$7:$E$7</definedName>
     <definedName name="GRUPO_RECURSOS">Informe!$C$7</definedName>
     <definedName name="NAME">Informe!$A$7</definedName>
+    <definedName name="PARENTI09">Informe!$E$7</definedName>
     <definedName name="PERFILES">Informe!$D$7</definedName>
     <definedName name="Titulo">Informe!$B$1</definedName>
     <definedName name="TYPE">Informe!$B$7</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Nombre</t>
   </si>
@@ -42,6 +43,9 @@
   </si>
   <si>
     <t>Titulo</t>
+  </si>
+  <si>
+    <t>Empleado</t>
   </si>
 </sst>
 </file>
@@ -989,7 +993,7 @@
   <dimension ref="A1:M196"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,7 +1001,7 @@
     <col min="1" max="1" width="41.5703125" style="3" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
     <col min="3" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" customWidth="1"/>
     <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
@@ -1070,12 +1074,16 @@
       <c r="D7" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E7" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" s="4"/>
@@ -1642,7 +1650,7 @@
       <c r="F196" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A7:C7"/>
+  <autoFilter ref="A7:E7"/>
   <pageMargins left="0.11811023622047244" right="0.11811023622047244" top="0.11811023622047244" bottom="0.11811023622047244" header="0" footer="0"/>
   <pageSetup scale="23" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
